--- a/manual_tests.xlsx
+++ b/manual_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="8270"/>
+    <workbookView xWindow="160" yWindow="140" windowWidth="18900" windowHeight="8210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>TS Nummer</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Find out what "exeptional cases" meaned in task docu and do test cases for this functional</t>
   </si>
   <si>
-    <t>Adress format test</t>
-  </si>
-  <si>
     <t>Negative validation by geolocation</t>
   </si>
   <si>
@@ -201,13 +198,46 @@
     <t>TS Description</t>
   </si>
   <si>
-    <t>Find out about requirements on supportet browsers, test if there are any</t>
-  </si>
-  <si>
-    <t>Usability test on geolocation</t>
-  </si>
-  <si>
     <t>No adresses on page, permission for geolocation given</t>
+  </si>
+  <si>
+    <t>Test for field length, special symbols (special attention to language-dependent symbols, like ä)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If applicable, test on CRUD, to ensure data consistency </t>
+  </si>
+  <si>
+    <t>Database testing adress field</t>
+  </si>
+  <si>
+    <t>Usability test on adress field</t>
+  </si>
+  <si>
+    <t>Delete input and fill with autocomplete function</t>
+  </si>
+  <si>
+    <t>Find out about requirements on supported browsers and their versions, test if there are any</t>
+  </si>
+  <si>
+    <t>Adress format negative tests (positive cases are tested with functional 1-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test on restricted areas, if applicable  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geolocation adress is deleted, new adress is given </t>
+  </si>
+  <si>
+    <t>Delete input and fill full by hand</t>
+  </si>
+  <si>
+    <t>Autocomplete compiled adress is deleted, new adress is given</t>
+  </si>
+  <si>
+    <t>Links to other pages test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that adress list is accecible from other pages, including "My Orders" </t>
   </si>
 </sst>
 </file>
@@ -336,6 +366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -344,12 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -864,7 +894,7 @@
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -876,42 +906,42 @@
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
       <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
@@ -973,7 +1003,7 @@
     </row>
     <row r="30" spans="1:6" s="11" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="12">
         <v>7</v>
@@ -1061,73 +1091,109 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="16" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="17">
+    <row r="38" spans="1:6" s="13" customFormat="1" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="14">
         <v>10</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="D38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="16" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16" t="s">
+      <c r="B39" s="14">
+        <v>11</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="17">
-        <v>11</v>
-      </c>
-      <c r="F39" s="16" t="s">
+    </row>
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="17">
+      <c r="B40" s="10">
         <v>12</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="44" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="F40" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="8">
         <v>13</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C42" s="7"/>
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B42" s="8"/>
       <c r="D42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+      <c r="D43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="14">
+        <v>14</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="14">
+        <v>15</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E18:E24"/>
